--- a/DATA FILES/Extracted_Data/ar_2005.xlsx
+++ b/DATA FILES/Extracted_Data/ar_2005.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +434,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>AVEIRO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>20/02/2005</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>PPD/PSD</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>139109</v>
-      </c>
-      <c r="H1" t="n">
-        <v>35.70000076293945</v>
-      </c>
-      <c r="I1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DIST_CONC_FREG</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T_ELEI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D_ELEI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SIGLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T_DADOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VOTOS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_VOTOS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MANDATOS</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -481,7 +501,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -490,13 +510,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2370</v>
+        <v>139109</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6100000143051147</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,10 +549,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>768</v>
+        <v>2370</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,7 +579,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,13 +588,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>159955</v>
+        <v>768</v>
       </c>
       <c r="H4" t="n">
-        <v>41.04999923706055</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,13 +627,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>13809</v>
+        <v>159955</v>
       </c>
       <c r="H5" t="n">
-        <v>3.539999961853027</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +657,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,10 +666,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>19846</v>
+        <v>13809</v>
       </c>
       <c r="H6" t="n">
-        <v>5.090000152587891</v>
+        <v>3.539999961853027</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -676,7 +696,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,10 +705,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1092</v>
+        <v>19846</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2800000011920929</v>
+        <v>5.090000152587891</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -715,7 +735,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,13 +744,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>38001</v>
+        <v>1092</v>
       </c>
       <c r="H8" t="n">
-        <v>9.75</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +774,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,22 +783,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3543</v>
+        <v>38001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9100000262260437</v>
+        <v>9.75</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BEJA</t>
+          <t>AVEIRO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -802,10 +822,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>350</v>
+        <v>3543</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -832,7 +852,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,10 +861,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2562</v>
+        <v>350</v>
       </c>
       <c r="H11" t="n">
-        <v>2.930000066757202</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -871,7 +891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,10 +900,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>197</v>
+        <v>2562</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2300000041723251</v>
+        <v>2.930000066757202</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -910,7 +930,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -919,13 +939,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>21036</v>
+        <v>197</v>
       </c>
       <c r="H13" t="n">
-        <v>24.07999992370605</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -949,7 +969,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -958,10 +978,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>44556</v>
+        <v>21036</v>
       </c>
       <c r="H14" t="n">
-        <v>51.0099983215332</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -988,7 +1008,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -997,13 +1017,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>212</v>
+        <v>44556</v>
       </c>
       <c r="H15" t="n">
-        <v>0.239999994635582</v>
+        <v>51.0099983215332</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1047,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1036,10 +1056,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10730</v>
+        <v>212</v>
       </c>
       <c r="H16" t="n">
-        <v>12.27999973297119</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1066,7 +1086,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1075,10 +1095,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1632</v>
+        <v>10730</v>
       </c>
       <c r="H17" t="n">
-        <v>1.870000004768372</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1105,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1114,10 +1134,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4144</v>
+        <v>1632</v>
       </c>
       <c r="H18" t="n">
-        <v>4.739999771118164</v>
+        <v>1.870000004768372</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1125,11 +1145,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRAGA</t>
+          <t>BEJA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1144,7 +1164,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1153,13 +1173,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>22988</v>
+        <v>4144</v>
       </c>
       <c r="H19" t="n">
-        <v>4.78000020980835</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1183,7 +1203,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1192,10 +1212,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>37618</v>
+        <v>22988</v>
       </c>
       <c r="H20" t="n">
-        <v>7.820000171661377</v>
+        <v>4.78000020980835</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1222,7 +1242,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1231,13 +1251,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1317</v>
+        <v>37618</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2700000107288361</v>
+        <v>7.820000171661377</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1261,7 +1281,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1270,10 +1290,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>720</v>
+        <v>1317</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1300,7 +1320,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1309,10 +1329,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>22179</v>
+        <v>720</v>
       </c>
       <c r="H23" t="n">
-        <v>4.610000133514404</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1339,7 +1359,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1348,10 +1368,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4422</v>
+        <v>22179</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9200000166893005</v>
+        <v>4.610000133514404</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1378,7 +1398,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1387,13 +1407,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>158244</v>
+        <v>4422</v>
       </c>
       <c r="H25" t="n">
-        <v>32.88000106811523</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1426,13 +1446,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3688</v>
+        <v>158244</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7699999809265137</v>
+        <v>32.88000106811523</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1456,7 +1476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1465,13 +1485,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>218665</v>
+        <v>3688</v>
       </c>
       <c r="H27" t="n">
-        <v>45.43999862670898</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1495,7 +1515,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1504,22 +1524,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>865</v>
+        <v>218665</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1800000071525574</v>
+        <v>45.43999862670898</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRAGANÇA</t>
+          <t>BRAGA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1534,7 +1554,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1543,13 +1563,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>34699</v>
+        <v>865</v>
       </c>
       <c r="H29" t="n">
-        <v>42.08000183105469</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1573,7 +1593,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1582,13 +1602,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2044</v>
+        <v>34699</v>
       </c>
       <c r="H30" t="n">
-        <v>2.480000019073486</v>
+        <v>42.08000183105469</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1632,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1621,10 +1641,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>456</v>
+        <v>2044</v>
       </c>
       <c r="H31" t="n">
-        <v>0.550000011920929</v>
+        <v>2.480000019073486</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1651,7 +1671,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1660,10 +1680,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>257</v>
+        <v>456</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3100000023841858</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1690,7 +1710,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1699,13 +1719,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>32129</v>
+        <v>257</v>
       </c>
       <c r="H33" t="n">
-        <v>38.97000122070312</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1729,7 +1749,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1738,13 +1758,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1679</v>
+        <v>32129</v>
       </c>
       <c r="H34" t="n">
-        <v>2.039999961853027</v>
+        <v>38.97000122070312</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1768,7 +1788,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1777,10 +1797,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>264</v>
+        <v>1679</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3199999928474426</v>
+        <v>2.039999961853027</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1807,7 +1827,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1816,10 +1836,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7964</v>
+        <v>264</v>
       </c>
       <c r="H36" t="n">
-        <v>9.659999847412109</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1846,7 +1866,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1855,10 +1875,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>623</v>
+        <v>7964</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7599999904632568</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1866,11 +1886,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASTELO BRANCO</t>
+          <t>BRAGANÇA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1894,10 +1914,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1924,7 +1944,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1933,10 +1953,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>947</v>
+        <v>619</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.5</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1963,7 +1983,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1972,10 +1992,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>263</v>
+        <v>947</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2099999934434891</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2002,7 +2022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2011,13 +2031,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>33240</v>
+        <v>263</v>
       </c>
       <c r="H41" t="n">
-        <v>26.67000007629395</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2041,7 +2061,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2050,13 +2070,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4660</v>
+        <v>33240</v>
       </c>
       <c r="H42" t="n">
-        <v>3.740000009536743</v>
+        <v>26.67000007629395</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2080,7 +2100,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2089,10 +2109,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6590</v>
+        <v>4660</v>
       </c>
       <c r="H43" t="n">
-        <v>5.289999961853027</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2119,7 +2139,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2128,10 +2148,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>326</v>
+        <v>6590</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2599999904632568</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2158,7 +2178,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2167,10 +2187,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4678</v>
+        <v>326</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2197,7 +2217,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2206,22 +2226,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>69795</v>
+        <v>4678</v>
       </c>
       <c r="H46" t="n">
-        <v>56</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COIMBRA</t>
+          <t>CASTELO BRANCO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2236,7 +2256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2245,13 +2265,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>360</v>
+        <v>69795</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1500000059604645</v>
+        <v>56</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2275,7 +2295,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2284,10 +2304,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1551</v>
+        <v>360</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2314,7 +2334,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2323,13 +2343,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>78062</v>
+        <v>1551</v>
       </c>
       <c r="H49" t="n">
-        <v>31.93000030517578</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2353,7 +2373,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2362,13 +2382,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1285</v>
+        <v>78062</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5299999713897705</v>
+        <v>31.93000030517578</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2392,7 +2412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2401,10 +2421,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>341</v>
+        <v>1285</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1400000005960464</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2431,7 +2451,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2440,10 +2460,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>13365</v>
+        <v>341</v>
       </c>
       <c r="H52" t="n">
-        <v>5.46999979019165</v>
+        <v>0.1400000005960464</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2470,7 +2490,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2479,13 +2499,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>111042</v>
+        <v>13365</v>
       </c>
       <c r="H53" t="n">
-        <v>45.43000030517578</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2509,7 +2529,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2518,13 +2538,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>15444</v>
+        <v>111042</v>
       </c>
       <c r="H54" t="n">
-        <v>6.320000171661377</v>
+        <v>45.43000030517578</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2557,10 +2577,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>664</v>
+        <v>15444</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2700000107288361</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2587,7 +2607,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2596,10 +2616,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>13463</v>
+        <v>664</v>
       </c>
       <c r="H56" t="n">
-        <v>5.510000228881836</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2607,11 +2627,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ÉVORA</t>
+          <t>COIMBRA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2626,7 +2646,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2635,13 +2655,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>48082</v>
+        <v>13463</v>
       </c>
       <c r="H57" t="n">
-        <v>49.70000076293945</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2665,7 +2685,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2674,13 +2694,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>398</v>
+        <v>48082</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4099999964237213</v>
+        <v>49.70000076293945</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2704,7 +2724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2713,10 +2733,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>124</v>
+        <v>398</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1299999952316284</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2743,7 +2763,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2752,10 +2772,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4463</v>
+        <v>124</v>
       </c>
       <c r="H60" t="n">
-        <v>4.610000133514404</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2782,7 +2802,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2791,10 +2811,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>16141</v>
+        <v>4463</v>
       </c>
       <c r="H61" t="n">
-        <v>16.69000053405762</v>
+        <v>4.610000133514404</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2821,7 +2841,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2830,10 +2850,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>191</v>
+        <v>16141</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2000000029802322</v>
+        <v>16.69000053405762</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2860,7 +2880,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2869,10 +2889,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1099999994039536</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2899,7 +2919,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2908,10 +2928,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1309</v>
+        <v>104</v>
       </c>
       <c r="H64" t="n">
-        <v>1.350000023841858</v>
+        <v>0.1099999994039536</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2938,7 +2958,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2947,10 +2967,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3594</v>
+        <v>1309</v>
       </c>
       <c r="H65" t="n">
-        <v>3.720000028610229</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2977,7 +2997,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2986,22 +3006,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>20246</v>
+        <v>3594</v>
       </c>
       <c r="H66" t="n">
-        <v>20.93000030517578</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>ÉVORA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3016,7 +3036,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3025,13 +3045,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1720</v>
+        <v>20246</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8600000143051147</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3055,7 +3075,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3064,10 +3084,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>13835</v>
+        <v>1720</v>
       </c>
       <c r="H68" t="n">
-        <v>6.929999828338623</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3094,7 +3114,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3103,10 +3123,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>15316</v>
+        <v>13835</v>
       </c>
       <c r="H69" t="n">
-        <v>7.670000076293945</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3133,7 +3153,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3142,10 +3162,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>11537</v>
+        <v>15316</v>
       </c>
       <c r="H70" t="n">
-        <v>5.78000020980835</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3172,7 +3192,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3181,13 +3201,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>49101</v>
+        <v>11537</v>
       </c>
       <c r="H71" t="n">
-        <v>24.57999992370605</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3211,7 +3231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3220,13 +3240,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>98570</v>
+        <v>49101</v>
       </c>
       <c r="H72" t="n">
-        <v>49.34000015258789</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3250,7 +3270,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3259,13 +3279,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1567</v>
+        <v>98570</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7799999713897705</v>
+        <v>49.34000015258789</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3289,7 +3309,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3298,10 +3318,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>503</v>
+        <v>1567</v>
       </c>
       <c r="H74" t="n">
-        <v>0.25</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3328,7 +3348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3337,10 +3357,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>947</v>
+        <v>503</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.25</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3348,11 +3368,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GUARDA</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3367,7 +3387,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3376,10 +3396,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2969</v>
+        <v>947</v>
       </c>
       <c r="H76" t="n">
-        <v>2.940000057220459</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3406,7 +3426,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3415,13 +3435,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>47290</v>
+        <v>2969</v>
       </c>
       <c r="H77" t="n">
-        <v>46.79999923706055</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3445,7 +3465,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3454,13 +3474,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>337</v>
+        <v>47290</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3300000131130219</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -3484,7 +3504,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3493,13 +3513,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>35092</v>
+        <v>337</v>
       </c>
       <c r="H79" t="n">
-        <v>34.72999954223633</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3523,7 +3543,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3532,13 +3552,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>372</v>
+        <v>35092</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3700000047683716</v>
+        <v>34.72999954223633</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3562,7 +3582,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3571,10 +3591,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>673</v>
+        <v>372</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3601,7 +3621,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3610,10 +3630,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3640,7 +3660,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3649,10 +3669,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3452</v>
+        <v>661</v>
       </c>
       <c r="H83" t="n">
-        <v>3.420000076293945</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3679,7 +3699,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3688,10 +3708,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7035</v>
+        <v>3452</v>
       </c>
       <c r="H84" t="n">
-        <v>6.960000038146973</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3699,11 +3719,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LEIRIA</t>
+          <t>GUARDA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3718,7 +3738,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3727,13 +3747,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>99244</v>
+        <v>7035</v>
       </c>
       <c r="H85" t="n">
-        <v>39.83000183105469</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3757,7 +3777,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3766,13 +3786,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1485</v>
+        <v>99244</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6000000238418579</v>
+        <v>39.83000183105469</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -3796,7 +3816,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3805,10 +3825,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>11423</v>
+        <v>1485</v>
       </c>
       <c r="H87" t="n">
-        <v>4.590000152587891</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3835,7 +3855,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3844,10 +3864,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>465</v>
+        <v>11423</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1899999976158142</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3874,7 +3894,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3883,13 +3903,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>22043</v>
+        <v>465</v>
       </c>
       <c r="H89" t="n">
-        <v>8.850000381469727</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3913,7 +3933,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3922,13 +3942,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>747</v>
+        <v>22043</v>
       </c>
       <c r="H90" t="n">
-        <v>0.300000011920929</v>
+        <v>8.850000381469727</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3952,7 +3972,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3961,10 +3981,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>13788</v>
+        <v>747</v>
       </c>
       <c r="H91" t="n">
-        <v>5.53000020980835</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3991,7 +4011,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4000,13 +4020,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>88623</v>
+        <v>13788</v>
       </c>
       <c r="H92" t="n">
-        <v>35.56999969482422</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4030,7 +4050,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4039,13 +4059,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>574</v>
+        <v>88623</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2300000041723251</v>
+        <v>35.56999969482422</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -4069,7 +4089,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4078,10 +4098,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1867</v>
+        <v>574</v>
       </c>
       <c r="H94" t="n">
-        <v>0.75</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4089,11 +4109,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LISBOA</t>
+          <t>LEIRIA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4108,7 +4128,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4117,13 +4137,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>523537</v>
+        <v>1867</v>
       </c>
       <c r="H95" t="n">
-        <v>44.11999893188477</v>
+        <v>0.75</v>
       </c>
       <c r="I95" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4147,7 +4167,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4156,13 +4176,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>280697</v>
+        <v>523537</v>
       </c>
       <c r="H96" t="n">
-        <v>23.64999961853027</v>
+        <v>44.11999893188477</v>
       </c>
       <c r="I96" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -4186,7 +4206,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4195,13 +4215,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>115709</v>
+        <v>280697</v>
       </c>
       <c r="H97" t="n">
-        <v>9.75</v>
+        <v>23.64999961853027</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4234,13 +4254,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>103944</v>
+        <v>115709</v>
       </c>
       <c r="H98" t="n">
-        <v>8.760000228881836</v>
+        <v>9.75</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -4264,7 +4284,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4273,10 +4293,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>97659</v>
+        <v>103944</v>
       </c>
       <c r="H99" t="n">
-        <v>8.229999542236328</v>
+        <v>8.760000228881836</v>
       </c>
       <c r="I99" t="n">
         <v>4</v>
@@ -4303,7 +4323,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4312,13 +4332,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>10985</v>
+        <v>97659</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9300000071525574</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -4342,7 +4362,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4351,10 +4371,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7203</v>
+        <v>10985</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4381,7 +4401,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4390,10 +4410,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3583</v>
+        <v>7203</v>
       </c>
       <c r="H102" t="n">
-        <v>0.300000011920929</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4420,7 +4440,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4429,10 +4449,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2721</v>
+        <v>3583</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2300000041723251</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4459,7 +4479,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4468,10 +4488,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1424</v>
+        <v>2721</v>
       </c>
       <c r="H104" t="n">
-        <v>0.119999997317791</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4498,7 +4518,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4507,10 +4527,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1137</v>
+        <v>1424</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4518,11 +4538,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PORTALEGRE</t>
+          <t>LISBOA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4537,7 +4557,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4546,10 +4566,10 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>618</v>
+        <v>1137</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4576,7 +4596,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4585,10 +4605,10 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>126</v>
+        <v>618</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1800000071525574</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4615,7 +4635,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4624,10 +4644,10 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2988</v>
+        <v>126</v>
       </c>
       <c r="H108" t="n">
-        <v>4.230000019073486</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4654,7 +4674,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4663,10 +4683,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>14290</v>
+        <v>2988</v>
       </c>
       <c r="H109" t="n">
-        <v>20.23999977111816</v>
+        <v>4.230000019073486</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4693,7 +4713,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4702,10 +4722,10 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>239</v>
+        <v>14290</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3400000035762787</v>
+        <v>20.23999977111816</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4732,7 +4752,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4741,10 +4761,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3216</v>
+        <v>239</v>
       </c>
       <c r="H111" t="n">
-        <v>4.550000190734863</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4771,7 +4791,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4780,13 +4800,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>38739</v>
+        <v>3216</v>
       </c>
       <c r="H112" t="n">
-        <v>54.86000061035156</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4810,7 +4830,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4819,13 +4839,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>203</v>
+        <v>38739</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2899999916553497</v>
+        <v>54.86000061035156</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -4849,7 +4869,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4858,10 +4878,10 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8546</v>
+        <v>203</v>
       </c>
       <c r="H114" t="n">
-        <v>12.10000038146973</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4869,11 +4889,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PORTO</t>
+          <t>PORTALEGRE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4897,13 +4917,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>54282</v>
+        <v>8546</v>
       </c>
       <c r="H115" t="n">
-        <v>5.420000076293945</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4927,7 +4947,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4936,13 +4956,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7675</v>
+        <v>54282</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7699999809265137</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -4966,7 +4986,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4975,10 +4995,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>8241</v>
+        <v>7675</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -5005,7 +5025,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5014,13 +5034,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>485975</v>
+        <v>8241</v>
       </c>
       <c r="H118" t="n">
-        <v>48.4900016784668</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="I118" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5044,7 +5064,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5053,13 +5073,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1034</v>
+        <v>485975</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1000000014901161</v>
+        <v>48.4900016784668</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
@@ -5083,7 +5103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5092,10 +5112,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2436</v>
+        <v>1034</v>
       </c>
       <c r="H120" t="n">
-        <v>0.239999994635582</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5122,7 +5142,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5131,13 +5151,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>68824</v>
+        <v>2436</v>
       </c>
       <c r="H121" t="n">
-        <v>6.869999885559082</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5161,7 +5181,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5170,13 +5190,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>278381</v>
+        <v>68824</v>
       </c>
       <c r="H122" t="n">
-        <v>27.78000068664551</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="I122" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -5200,7 +5220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5209,22 +5229,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>66912</v>
+        <v>278381</v>
       </c>
       <c r="H123" t="n">
-        <v>6.679999828338623</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SANTARÉM</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5239,7 +5259,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5248,13 +5268,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>67021</v>
+        <v>66912</v>
       </c>
       <c r="H124" t="n">
-        <v>26.38999938964844</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -5278,7 +5298,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5287,13 +5307,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>770</v>
+        <v>67021</v>
       </c>
       <c r="H125" t="n">
-        <v>0.300000011920929</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -5317,7 +5337,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5326,13 +5346,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>21879</v>
+        <v>770</v>
       </c>
       <c r="H126" t="n">
-        <v>8.609999656677246</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5356,7 +5376,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5365,13 +5385,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1678</v>
+        <v>21879</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6600000262260437</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5395,7 +5415,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5404,13 +5424,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>117193</v>
+        <v>1678</v>
       </c>
       <c r="H128" t="n">
-        <v>46.13999938964844</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I128" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5434,7 +5454,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5443,13 +5463,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>391</v>
+        <v>117193</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1500000059604645</v>
+        <v>46.13999938964844</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -5473,7 +5493,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5482,10 +5502,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>17607</v>
+        <v>391</v>
       </c>
       <c r="H130" t="n">
-        <v>6.929999828338623</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -5512,7 +5532,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5521,10 +5541,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>511</v>
+        <v>17607</v>
       </c>
       <c r="H131" t="n">
-        <v>0.2000000029802322</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -5551,7 +5571,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5560,10 +5580,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2328</v>
+        <v>511</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -5590,7 +5610,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5599,10 +5619,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>16590</v>
+        <v>2328</v>
       </c>
       <c r="H133" t="n">
-        <v>6.53000020980835</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -5610,11 +5630,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SETÚBAL</t>
+          <t>SANTARÉM</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5638,13 +5658,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>43862</v>
+        <v>16590</v>
       </c>
       <c r="H134" t="n">
-        <v>10.27000045776367</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5668,7 +5688,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5677,13 +5697,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>571</v>
+        <v>43862</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1299999952316284</v>
+        <v>10.27000045776367</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -5707,7 +5727,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5716,10 +5736,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>906</v>
+        <v>571</v>
       </c>
       <c r="H136" t="n">
-        <v>0.2099999934434891</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -5746,7 +5766,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5755,10 +5775,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2109</v>
+        <v>906</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4900000095367432</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -5785,7 +5805,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5794,10 +5814,10 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1152</v>
+        <v>2109</v>
       </c>
       <c r="H138" t="n">
-        <v>0.2700000107288361</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -5824,7 +5844,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5833,10 +5853,10 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5356</v>
+        <v>1152</v>
       </c>
       <c r="H139" t="n">
-        <v>1.25</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -5863,7 +5883,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5872,13 +5892,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>85452</v>
+        <v>5356</v>
       </c>
       <c r="H140" t="n">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5902,7 +5922,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5911,10 +5931,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>68695</v>
+        <v>85452</v>
       </c>
       <c r="H141" t="n">
-        <v>16.07999992370605</v>
+        <v>20</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -5941,7 +5961,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5950,13 +5970,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>21683</v>
+        <v>68695</v>
       </c>
       <c r="H142" t="n">
-        <v>5.079999923706055</v>
+        <v>16.07999992370605</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -5980,7 +6000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5989,22 +6009,22 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>186365</v>
+        <v>21683</v>
       </c>
       <c r="H143" t="n">
-        <v>43.63000106811523</v>
+        <v>5.079999923706055</v>
       </c>
       <c r="I143" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>VIANA DO CASTELO</t>
+          <t>SETÚBAL</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6019,7 +6039,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6028,13 +6048,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>16205</v>
+        <v>186365</v>
       </c>
       <c r="H144" t="n">
-        <v>11.39999961853027</v>
+        <v>43.63000106811523</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145">
@@ -6058,7 +6078,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6067,13 +6087,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6415</v>
+        <v>16205</v>
       </c>
       <c r="H145" t="n">
-        <v>4.510000228881836</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -6097,7 +6117,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6106,10 +6126,10 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1002</v>
+        <v>6415</v>
       </c>
       <c r="H146" t="n">
-        <v>0.699999988079071</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -6136,7 +6156,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6145,13 +6165,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>47645</v>
+        <v>1002</v>
       </c>
       <c r="H147" t="n">
-        <v>33.5099983215332</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6175,7 +6195,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6184,13 +6204,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>586</v>
+        <v>47645</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4099999964237213</v>
+        <v>33.5099983215332</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -6214,7 +6234,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6223,13 +6243,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>59676</v>
+        <v>586</v>
       </c>
       <c r="H149" t="n">
-        <v>41.97000122070312</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6253,7 +6273,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6262,13 +6282,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5362</v>
+        <v>59676</v>
       </c>
       <c r="H150" t="n">
-        <v>3.769999980926514</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -6292,7 +6312,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6301,10 +6321,10 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>263</v>
+        <v>5362</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1800000071525574</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -6331,7 +6351,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6340,10 +6360,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1159</v>
+        <v>263</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -6351,11 +6371,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>VILA REAL</t>
+          <t>VIANA DO CASTELO</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6370,7 +6390,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6379,13 +6399,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>55123</v>
+        <v>1159</v>
       </c>
       <c r="H153" t="n">
-        <v>43.81000137329102</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6409,7 +6429,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6418,13 +6438,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>507</v>
+        <v>55123</v>
       </c>
       <c r="H154" t="n">
-        <v>0.4000000059604645</v>
+        <v>43.81000137329102</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -6448,7 +6468,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6457,10 +6477,10 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>207</v>
+        <v>507</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1599999964237213</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -6487,7 +6507,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6496,10 +6516,10 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>8509</v>
+        <v>207</v>
       </c>
       <c r="H156" t="n">
-        <v>6.760000228881836</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -6526,7 +6546,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6535,13 +6555,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>50545</v>
+        <v>8509</v>
       </c>
       <c r="H157" t="n">
-        <v>40.16999816894531</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6565,7 +6585,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6574,13 +6594,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3275</v>
+        <v>50545</v>
       </c>
       <c r="H158" t="n">
-        <v>2.599999904632568</v>
+        <v>40.16999816894531</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -6604,7 +6624,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6613,10 +6633,10 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>562</v>
+        <v>3275</v>
       </c>
       <c r="H159" t="n">
-        <v>0.449999988079071</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -6643,7 +6663,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6652,10 +6672,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3019</v>
+        <v>562</v>
       </c>
       <c r="H160" t="n">
-        <v>2.400000095367432</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -6682,7 +6702,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6691,10 +6711,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>164</v>
+        <v>3019</v>
       </c>
       <c r="H161" t="n">
-        <v>0.1299999952316284</v>
+        <v>2.400000095367432</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -6721,7 +6741,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6730,10 +6750,10 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>631</v>
+        <v>164</v>
       </c>
       <c r="H162" t="n">
-        <v>0.5</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -6741,11 +6761,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>VISEU</t>
+          <t>VILA REAL</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6760,7 +6780,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6769,10 +6789,10 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>434</v>
+        <v>631</v>
       </c>
       <c r="H163" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.5</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -6799,7 +6819,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6808,13 +6828,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>86497</v>
+        <v>434</v>
       </c>
       <c r="H164" t="n">
-        <v>40.40999984741211</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="I164" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6838,7 +6858,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6847,13 +6867,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>996</v>
+        <v>86497</v>
       </c>
       <c r="H165" t="n">
-        <v>0.4699999988079071</v>
+        <v>40.40999984741211</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -6877,7 +6897,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6886,13 +6906,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>86002</v>
+        <v>996</v>
       </c>
       <c r="H166" t="n">
-        <v>40.18000030517578</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I166" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6916,7 +6936,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6925,13 +6945,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4792</v>
+        <v>86002</v>
       </c>
       <c r="H167" t="n">
-        <v>2.240000009536743</v>
+        <v>40.18000030517578</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -6955,7 +6975,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6964,10 +6984,10 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1038</v>
+        <v>4792</v>
       </c>
       <c r="H168" t="n">
-        <v>0.4799999892711639</v>
+        <v>2.240000009536743</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -6994,7 +7014,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7003,10 +7023,10 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7149</v>
+        <v>1038</v>
       </c>
       <c r="H169" t="n">
-        <v>3.339999914169312</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -7033,7 +7053,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7042,13 +7062,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>18477</v>
+        <v>7149</v>
       </c>
       <c r="H170" t="n">
-        <v>8.630000114440918</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -7072,7 +7092,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7081,22 +7101,22 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1537</v>
+        <v>18477</v>
       </c>
       <c r="H171" t="n">
-        <v>0.7200000286102295</v>
+        <v>8.630000114440918</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>VISEU</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7111,7 +7131,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7120,13 +7140,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>48528</v>
+        <v>1537</v>
       </c>
       <c r="H172" t="n">
-        <v>53.13999938964844</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -7150,7 +7170,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7159,13 +7179,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>691</v>
+        <v>48528</v>
       </c>
       <c r="H173" t="n">
-        <v>0.7599999904632568</v>
+        <v>53.13999938964844</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -7189,7 +7209,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7198,10 +7218,10 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>317</v>
+        <v>691</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3499999940395355</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -7228,7 +7248,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7237,10 +7257,10 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1575</v>
+        <v>317</v>
       </c>
       <c r="H175" t="n">
-        <v>1.720000028610229</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -7267,7 +7287,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7276,10 +7296,10 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2636</v>
+        <v>1575</v>
       </c>
       <c r="H176" t="n">
-        <v>2.890000104904175</v>
+        <v>1.720000028610229</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -7306,7 +7326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7315,10 +7335,10 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>148</v>
+        <v>2636</v>
       </c>
       <c r="H177" t="n">
-        <v>0.1599999964237213</v>
+        <v>2.890000104904175</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -7345,7 +7365,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7354,13 +7374,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>31385</v>
+        <v>148</v>
       </c>
       <c r="H178" t="n">
-        <v>34.36999893188477</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7384,7 +7404,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7393,13 +7413,13 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3675</v>
+        <v>31385</v>
       </c>
       <c r="H179" t="n">
-        <v>4.019999980926514</v>
+        <v>34.36999893188477</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -7423,7 +7443,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7432,10 +7452,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>425</v>
+        <v>3675</v>
       </c>
       <c r="H180" t="n">
-        <v>0.4699999988079071</v>
+        <v>4.019999980926514</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -7443,11 +7463,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MADEIRA</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7462,7 +7482,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7471,10 +7491,10 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>9215</v>
+        <v>425</v>
       </c>
       <c r="H181" t="n">
-        <v>6.559999942779541</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -7501,7 +7521,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7510,10 +7530,10 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1880</v>
+        <v>9215</v>
       </c>
       <c r="H182" t="n">
-        <v>1.340000033378601</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -7540,7 +7560,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7549,13 +7569,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>49122</v>
+        <v>1880</v>
       </c>
       <c r="H183" t="n">
-        <v>34.97999954223633</v>
+        <v>1.340000033378601</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -7579,7 +7599,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7588,13 +7608,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5265</v>
+        <v>49122</v>
       </c>
       <c r="H184" t="n">
-        <v>3.75</v>
+        <v>34.97999954223633</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -7618,7 +7638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7627,10 +7647,10 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4991</v>
+        <v>5265</v>
       </c>
       <c r="H185" t="n">
-        <v>3.549999952316284</v>
+        <v>3.75</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -7657,7 +7677,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7666,10 +7686,10 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>903</v>
+        <v>4991</v>
       </c>
       <c r="H186" t="n">
-        <v>0.6399999856948853</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -7696,7 +7716,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7705,13 +7725,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>63523</v>
+        <v>903</v>
       </c>
       <c r="H187" t="n">
-        <v>45.2400016784668</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7735,7 +7755,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7744,22 +7764,22 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1624</v>
+        <v>63523</v>
       </c>
       <c r="H188" t="n">
-        <v>1.159999966621399</v>
+        <v>45.2400016784668</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>MADEIRA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7774,7 +7794,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7783,13 +7803,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>364971</v>
+        <v>1624</v>
       </c>
       <c r="H189" t="n">
-        <v>6.349999904632568</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="I189" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -7813,7 +7833,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7822,13 +7842,13 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>416415</v>
+        <v>364971</v>
       </c>
       <c r="H190" t="n">
-        <v>7.239999771118164</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="I190" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
@@ -7852,7 +7872,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7861,13 +7881,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>433369</v>
+        <v>416415</v>
       </c>
       <c r="H191" t="n">
-        <v>7.539999961853027</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="I191" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
@@ -7891,7 +7911,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7900,13 +7920,13 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>48186</v>
+        <v>433369</v>
       </c>
       <c r="H192" t="n">
-        <v>0.8399999737739563</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -7930,7 +7950,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7939,10 +7959,10 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1618</v>
+        <v>48186</v>
       </c>
       <c r="H193" t="n">
-        <v>0.02999999932944775</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -7969,7 +7989,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7978,10 +7998,10 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>17056</v>
+        <v>1618</v>
       </c>
       <c r="H194" t="n">
-        <v>0.300000011920929</v>
+        <v>0.02999999932944775</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -8008,7 +8028,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8017,10 +8037,10 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>40358</v>
+        <v>17056</v>
       </c>
       <c r="H195" t="n">
-        <v>0.699999988079071</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -8047,7 +8067,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8056,10 +8076,10 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5535</v>
+        <v>40358</v>
       </c>
       <c r="H196" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -8086,7 +8106,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8095,13 +8115,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1653425</v>
+        <v>5535</v>
       </c>
       <c r="H197" t="n">
-        <v>28.77000045776367</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="I197" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -8125,7 +8145,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8134,13 +8154,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2588312</v>
+        <v>1653425</v>
       </c>
       <c r="H198" t="n">
-        <v>45.02999877929688</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="I198" t="n">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199">
@@ -8164,7 +8184,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8173,22 +8193,22 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9374</v>
+        <v>2588312</v>
       </c>
       <c r="H199" t="n">
-        <v>0.1599999964237213</v>
+        <v>45.02999877929688</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>750040</v>
+        <v>230000</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8203,7 +8223,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8212,10 +8232,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>535</v>
+        <v>9374</v>
       </c>
       <c r="H200" t="n">
-        <v>2.279999971389771</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -8242,7 +8262,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8251,10 +8271,10 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>794</v>
+        <v>535</v>
       </c>
       <c r="H201" t="n">
-        <v>3.390000104904175</v>
+        <v>2.279999971389771</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -8281,7 +8301,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8290,10 +8310,10 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>973</v>
+        <v>794</v>
       </c>
       <c r="H202" t="n">
-        <v>4.150000095367432</v>
+        <v>3.390000104904175</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -8320,7 +8340,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8329,10 +8349,10 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>148</v>
+        <v>973</v>
       </c>
       <c r="H203" t="n">
-        <v>0.6299999952316284</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -8359,7 +8379,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8368,10 +8388,10 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H204" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -8398,7 +8418,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8407,10 +8427,10 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H205" t="n">
-        <v>0.2599999904632568</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -8437,7 +8457,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8446,13 +8466,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>6366</v>
+        <v>60</v>
       </c>
       <c r="H206" t="n">
-        <v>27.14999961853027</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -8476,7 +8496,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8485,10 +8505,10 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>12728</v>
+        <v>6366</v>
       </c>
       <c r="H207" t="n">
-        <v>54.27999877929688</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -8496,11 +8516,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>750050</v>
+        <v>750040</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FORA DA EUROPA</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8515,7 +8535,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8524,13 +8544,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>92</v>
+        <v>12728</v>
       </c>
       <c r="H208" t="n">
-        <v>0.6800000071525574</v>
+        <v>54.27999877929688</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -8554,7 +8574,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8563,10 +8583,10 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>470</v>
+        <v>92</v>
       </c>
       <c r="H209" t="n">
-        <v>3.480000019073486</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -8593,7 +8613,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8602,10 +8622,10 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>137</v>
+        <v>470</v>
       </c>
       <c r="H210" t="n">
-        <v>1.019999980926514</v>
+        <v>3.480000019073486</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -8632,7 +8652,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8641,10 +8661,10 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2099999934434891</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -8671,7 +8691,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8680,10 +8700,10 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="H212" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -8710,7 +8730,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8719,10 +8739,10 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="H213" t="n">
-        <v>0.1700000017881393</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -8749,7 +8769,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8758,13 +8778,13 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>7783</v>
+        <v>23</v>
       </c>
       <c r="H214" t="n">
-        <v>57.70000076293945</v>
+        <v>0.1700000017881393</v>
       </c>
       <c r="I214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -8788,21 +8808,60 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
+          <t>PPD/PSD</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>7783</v>
+      </c>
+      <c r="H215" t="n">
+        <v>57.70000076293945</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>750050</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>FORA DA EUROPA</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>20/02/2005</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
         <v>3552</v>
       </c>
-      <c r="H215" t="n">
+      <c r="H216" t="n">
         <v>26.32999992370605</v>
       </c>
-      <c r="I215" t="n">
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
